--- a/RUDN/Conclusion/nan.IDB.Con.xlsx
+++ b/RUDN/Conclusion/nan.IDB.Con.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="46">
   <si>
     <t>Первый признак</t>
   </si>
@@ -25,13 +25,118 @@
     <t>Корреляция</t>
   </si>
   <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of adult females living with HIV)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of adult males living with HIV)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>GDP per capita (current US$)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
@@ -40,7 +145,13 @@
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
 </sst>
 </file>
@@ -398,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>0.9449435263508662</v>
+        <v>0.981793858319603</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -431,10 +542,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.9456088203797628</v>
+        <v>-0.9436420790107294</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -442,43 +553,8018 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.9998763671419119</v>
+        <v>-0.9627047585829271</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.9414369228864989</v>
+        <v>-0.9400542699940219</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>0.9421390669295083</v>
+        <v>-0.8938107857071299</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>-0.921548087932806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>-0.981911363101086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>-0.9430415690095115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>0.8974497450678326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>0.8983206382672465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0.9876476292015693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>-0.7801200439228291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>-0.937119173993889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>-0.9776419081256251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>-0.9775028844200306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>0.9024283943037114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>-0.9752904956219696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>-0.9752574079391931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>-0.9748577624936509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>-0.9744565814003986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>-0.9723013302402055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>-0.9713869506095955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>-0.9711855187451331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>-0.9207649531629444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0.9509097531059419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>-0.9859357222303122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>-0.9957145350907267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>-0.950659010489963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.986619189616204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>-0.9492718451481744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>0.950875589117987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>0.9829536795979444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>-0.9913615096104589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>-0.9899743292618411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>-0.9900329503508606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>0.8437169544920377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>-0.9674922531942126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>0.9876646299581628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>-0.9336789450966596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>0.7755150950974941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>-0.9670471017418375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>-0.8734993309384956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0.9818565792375691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <v>-0.9765263000548605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>0.9691253544076985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>0.9032089763668697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>0.9837993066090507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>0.9993619526316204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>0.9893104306638008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>-0.8734611637301127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <v>-0.9738369952081489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>0.9054335210747776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54">
+        <v>0.9895954324800321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>0.9507725105392053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>0.9952337492636176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57">
+        <v>0.9916785725631141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>0.9316960274868089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>-0.7773249935173745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>-0.9562536286417316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>0.9929254764958378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C62">
+        <v>0.9928048944111604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63">
+        <v>-0.9557352611864337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>-0.7895541273578452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>0.9193068276225911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>0.9289625413105792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>0.9098434856395812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>-0.9431571605259654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>0.9915534364978171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <v>0.9374097850894024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71">
+        <v>0.9905804471736493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>0.9898707058618847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>0.9233028784021079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>-0.9564565152981314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <v>-0.9451133724439161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76">
+        <v>0.9361167070076537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>0.9210980078168292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>-0.891204793959716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79">
+        <v>-0.9458026223404178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>0.9853019348346416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>0.9360170128794931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>0.9800687793099176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>0.9743851483006799</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C84">
+        <v>-0.8912530633147053</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85">
+        <v>-0.9766972734124511</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86">
+        <v>0.9272143720806461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>0.9952788452033683</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88">
+        <v>0.9945175710005046</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>0.9462321628110889</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>0.9961422202956588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>0.9517605035133948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>0.9961704747906727</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>-0.9877850237352632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>0.9644955575867152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95">
+        <v>0.9961955691750258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>0.9925182617087788</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97">
+        <v>-0.9860213166717271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98">
+        <v>0.9954117621305718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>0.9309638102936174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>-0.8118972085166695</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101">
+        <v>0.9962358606730057</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102">
+        <v>0.9971245393067026</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>0.8191970926717033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>0.9476576926884772</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>0.8415396869600652</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106">
+        <v>-0.9772821859715404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>0.948553482597022</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108">
+        <v>-0.9382764553520446</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>0.9955366524071833</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110">
+        <v>0.9352028617366408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>0.91168633822032</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>0.9363430058938421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113">
+        <v>-0.9776935427497875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114">
+        <v>0.9926031243807955</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115">
+        <v>-0.980184680577414</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116">
+        <v>-0.915365662332094</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>-0.9297273193313386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118">
+        <v>-0.927299804365262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119">
+        <v>0.9316756365348906</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>-0.9208021453982944</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121">
+        <v>0.9338145866195999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>-0.9417702574668416</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123">
+        <v>-0.9366204954192408</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>-0.917108072853699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>-0.9453872140419464</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126">
+        <v>-0.9141700055788229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127">
+        <v>-0.9207097217758579</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128">
+        <v>-0.9147672716305812</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <v>0.8430822212022977</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130">
+        <v>-0.9678714758799902</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131">
+        <v>-0.8167909110261057</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132">
+        <v>0.9015806137399832</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133">
+        <v>-0.9279223241216121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134">
+        <v>0.9548983998101698</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135">
+        <v>-0.9108512656607977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>-0.8931673185229677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137">
+        <v>0.955745244232915</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138">
+        <v>-0.901352697548378</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>-0.9024286218850861</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>-0.8771796212751166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>-0.9056816305619366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>-0.8468233937328872</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143">
+        <v>0.7373335755004914</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144">
+        <v>-0.9083561283501154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145">
+        <v>0.8422057571905009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>-0.9096524284956425</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147">
+        <v>-0.9521617838604596</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148">
+        <v>-0.9105366022096621</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>-0.7962069278371896</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150">
+        <v>-0.7962521986248564</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151">
+        <v>-0.9208477943847101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152">
+        <v>0.7374351999873597</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153">
+        <v>-0.8168198809085336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154">
+        <v>0.8422095083639409</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155">
+        <v>-0.9273681649540744</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156">
+        <v>0.901648124342281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157">
+        <v>-0.9105783948474678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>-0.9171525737589596</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159">
+        <v>-0.9207493286827039</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>-0.8772218637963292</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161">
+        <v>-0.893210060126747</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162">
+        <v>-0.9013954852032304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163">
+        <v>-0.9154070951559586</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>-0.9024612356334121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165">
+        <v>-0.9148085567000953</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166">
+        <v>-0.9057263801915081</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167">
+        <v>-0.9142111442626717</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168">
+        <v>-0.9083980146826839</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169">
+        <v>-0.9096700551150034</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170">
+        <v>-0.9108931640759493</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171">
+        <v>-0.8468534902988037</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172">
+        <v>-0.9279621957467786</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173">
+        <v>0.8430863945592898</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174">
+        <v>0.9557698637802921</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175">
+        <v>-0.936651123459778</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176">
+        <v>-0.9297621724743673</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177">
+        <v>0.9338599434086762</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178">
+        <v>-0.9679032808529</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>39</v>
+      </c>
+      <c r="C179">
+        <v>0.9549199351484292</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>-0.9418005825228389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181">
+        <v>0.9317200855232577</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>-0.9454178718764685</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183">
+        <v>-0.9521931890298033</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
+        <v>37</v>
+      </c>
+      <c r="C184">
+        <v>0.8800360561623898</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>42</v>
+      </c>
+      <c r="C185">
+        <v>-0.8977072171011155</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>41</v>
+      </c>
+      <c r="C186">
+        <v>-0.8968988360362494</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>0.9364254541435455</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188">
+        <v>0.9737864549313443</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189">
+        <v>0.9868516858755099</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190">
+        <v>0.9865689340711651</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" t="s">
+        <v>36</v>
+      </c>
+      <c r="C191">
+        <v>-0.8961550806732252</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192">
+        <v>0.9390622513053595</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>0.9291080607478195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194">
+        <v>0.9182460848905122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195">
+        <v>0.9621706426353854</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196">
+        <v>0.9884563102012515</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>39</v>
+      </c>
+      <c r="C197">
+        <v>-0.9726475469303358</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198">
+        <v>0.9692338943060224</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199">
+        <v>-0.9783949415988953</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200">
+        <v>0.9664092499114914</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201">
+        <v>0.9660048472702887</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>45</v>
+      </c>
+      <c r="C202">
+        <v>-0.9792782225660587</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203">
+        <v>0.9655989479084131</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204">
+        <v>0.9655280144323807</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205">
+        <v>0.965294816034494</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206">
+        <v>-0.8220335039180454</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>35</v>
+      </c>
+      <c r="C207">
+        <v>0.9619737355858685</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208">
+        <v>0.9878766323832835</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209">
+        <v>0.9130716909873623</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210">
+        <v>0.9527408573410688</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211">
+        <v>0.9632849771826499</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212">
+        <v>0.9818208203589268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213">
+        <v>0.7840955296733152</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214">
+        <v>0.9326661866007575</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215">
+        <v>0.930958468100252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216">
+        <v>0.9391069720087309</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217">
+        <v>0.9598279228462482</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>45</v>
+      </c>
+      <c r="C218">
+        <v>-0.9583995141302831</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>28</v>
+      </c>
+      <c r="C219">
+        <v>-0.9583959950437427</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220">
+        <v>0.9070573179868106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221">
+        <v>0.8458881963053444</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222">
+        <v>0.9400613535243476</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>36</v>
+      </c>
+      <c r="C223">
+        <v>-0.8695256988312803</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224">
+        <v>0.8267480422016812</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225">
+        <v>0.9523600384476132</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226">
+        <v>0.8616490771607962</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227">
+        <v>0.8125192652838326</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228">
+        <v>0.88571187971464</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229">
+        <v>0.8092964333447892</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" t="s">
+        <v>35</v>
+      </c>
+      <c r="C230">
+        <v>0.8624995948063193</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" t="s">
+        <v>34</v>
+      </c>
+      <c r="C231">
+        <v>0.8628226905703152</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232">
+        <v>0.9136570457011728</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233">
+        <v>0.8660692775578783</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>30</v>
+      </c>
+      <c r="C234">
+        <v>0.8707525372991086</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" t="s">
+        <v>32</v>
+      </c>
+      <c r="C235">
+        <v>0.8700702409379897</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>39</v>
+      </c>
+      <c r="C236">
+        <v>-0.8917751531344015</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" t="s">
+        <v>45</v>
+      </c>
+      <c r="C237">
+        <v>-0.8970468812441859</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" t="s">
+        <v>24</v>
+      </c>
+      <c r="C238">
+        <v>0.9505289197736263</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239">
+        <v>0.8279712476146531</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
+        <v>37</v>
+      </c>
+      <c r="C240">
+        <v>0.7662196016120454</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" t="s">
+        <v>41</v>
+      </c>
+      <c r="C241">
+        <v>-0.7799927653369567</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242">
+        <v>0.9333421552057705</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>28</v>
+      </c>
+      <c r="C243">
+        <v>-0.8945390800833618</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244">
+        <v>0.8344893257207389</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245">
+        <v>0.8693902511095223</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246">
+        <v>0.8944675423581915</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247">
+        <v>0.8764302481831882</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" t="s">
+        <v>40</v>
+      </c>
+      <c r="C248">
+        <v>-0.8930512915632696</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>42</v>
+      </c>
+      <c r="C249">
+        <v>-0.7808835418013452</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <v>-0.6656567917281919</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" t="s">
+        <v>20</v>
+      </c>
+      <c r="C251">
+        <v>0.737327297069757</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>44</v>
+      </c>
+      <c r="C252">
+        <v>-0.6632938678121065</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253">
+        <v>-0.7842795161945673</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254">
+        <v>-0.7276891911900677</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255">
+        <v>-0.736023596073986</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256">
+        <v>-0.7361189352323632</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>21</v>
+      </c>
+      <c r="C257">
+        <v>-0.7496919788750479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258" t="s">
+        <v>29</v>
+      </c>
+      <c r="C258">
+        <v>-0.7543576627169422</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259">
+        <v>-0.7785829507467904</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" t="s">
+        <v>31</v>
+      </c>
+      <c r="C260">
+        <v>-0.7277702466014321</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261">
+        <v>-0.7624510210467115</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" t="s">
+        <v>28</v>
+      </c>
+      <c r="C262">
+        <v>0.7020514981145151</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263">
+        <v>-0.72731869319305</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>45</v>
+      </c>
+      <c r="C264">
+        <v>0.6996065357175815</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" t="s">
+        <v>40</v>
+      </c>
+      <c r="C265">
+        <v>0.6923449353936653</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" t="s">
+        <v>42</v>
+      </c>
+      <c r="C266">
+        <v>0.6922758093571643</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" t="s">
+        <v>41</v>
+      </c>
+      <c r="C267">
+        <v>0.6916568327915601</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" t="s">
+        <v>39</v>
+      </c>
+      <c r="C268">
+        <v>0.6904399799108238</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" t="s">
+        <v>32</v>
+      </c>
+      <c r="C269">
+        <v>-0.7273861624057386</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270">
+        <v>-0.679308094662094</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" t="s">
+        <v>37</v>
+      </c>
+      <c r="C271">
+        <v>-0.7077249925645752</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272">
+        <v>0.8823829843365741</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273">
+        <v>-0.7125111989180608</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274" t="s">
+        <v>26</v>
+      </c>
+      <c r="C274">
+        <v>-0.7195456882667751</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" t="s">
+        <v>30</v>
+      </c>
+      <c r="C275">
+        <v>-0.7269927036912114</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" t="s">
+        <v>30</v>
+      </c>
+      <c r="C276">
+        <v>0.9638379251306608</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>13</v>
+      </c>
+      <c r="B277" t="s">
+        <v>35</v>
+      </c>
+      <c r="C277">
+        <v>0.9632260145072015</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" t="s">
+        <v>29</v>
+      </c>
+      <c r="C278">
+        <v>0.9622552163906308</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" t="s">
+        <v>31</v>
+      </c>
+      <c r="C279">
+        <v>0.9630676283158051</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>13</v>
+      </c>
+      <c r="B280" t="s">
+        <v>34</v>
+      </c>
+      <c r="C280">
+        <v>0.9634312156187222</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>13</v>
+      </c>
+      <c r="B281" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281">
+        <v>0.9635900157333136</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282">
+        <v>0.8413857616975754</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283">
+        <v>0.9647030656019767</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>0.9500781787284304</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" t="s">
+        <v>17</v>
+      </c>
+      <c r="C285">
+        <v>0.9633710741441082</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286">
+        <v>0.9954734911037668</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>24</v>
+      </c>
+      <c r="C287">
+        <v>0.9407988181227372</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" t="s">
+        <v>21</v>
+      </c>
+      <c r="C288">
+        <v>0.9192082485247848</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289">
+        <v>0.9531463306206043</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290">
+        <v>0.8970560211276886</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" t="s">
+        <v>37</v>
+      </c>
+      <c r="C291">
+        <v>0.902672094613415</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292">
+        <v>0.981110304932554</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" t="s">
+        <v>41</v>
+      </c>
+      <c r="C293">
+        <v>-0.9051226983904488</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" t="s">
+        <v>33</v>
+      </c>
+      <c r="C294">
+        <v>0.9592398808426283</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>13</v>
+      </c>
+      <c r="B295" t="s">
+        <v>23</v>
+      </c>
+      <c r="C295">
+        <v>-0.902683493708655</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296" t="s">
+        <v>42</v>
+      </c>
+      <c r="C296">
+        <v>-0.90592221573054</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>13</v>
+      </c>
+      <c r="B297" t="s">
+        <v>16</v>
+      </c>
+      <c r="C297">
+        <v>0.9881427475937763</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" t="s">
+        <v>38</v>
+      </c>
+      <c r="C298">
+        <v>0.9312034865044053</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" t="s">
+        <v>39</v>
+      </c>
+      <c r="C299">
+        <v>-0.9601863521875946</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300" t="s">
+        <v>25</v>
+      </c>
+      <c r="C300">
+        <v>0.9654707942885915</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" t="s">
+        <v>28</v>
+      </c>
+      <c r="C301">
+        <v>-0.9691237680560846</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302" t="s">
+        <v>40</v>
+      </c>
+      <c r="C302">
+        <v>-0.9613582449157291</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303" t="s">
+        <v>32</v>
+      </c>
+      <c r="C303">
+        <v>0.9634535509053267</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" t="s">
+        <v>36</v>
+      </c>
+      <c r="C304">
+        <v>-0.8995182072780268</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" t="s">
+        <v>45</v>
+      </c>
+      <c r="C305">
+        <v>-0.9698230117481675</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>28</v>
+      </c>
+      <c r="C306">
+        <v>-0.9539377737934283</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>32</v>
+      </c>
+      <c r="C307">
+        <v>0.9414628527688547</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>14</v>
+      </c>
+      <c r="B308" t="s">
+        <v>33</v>
+      </c>
+      <c r="C308">
+        <v>0.9360852296161963</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>14</v>
+      </c>
+      <c r="B309" t="s">
+        <v>29</v>
+      </c>
+      <c r="C309">
+        <v>0.9372627022956284</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" t="s">
+        <v>37</v>
+      </c>
+      <c r="C310">
+        <v>0.8698459095987217</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311" t="s">
+        <v>39</v>
+      </c>
+      <c r="C311">
+        <v>-0.945360927427305</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>14</v>
+      </c>
+      <c r="B312" t="s">
+        <v>18</v>
+      </c>
+      <c r="C312">
+        <v>0.9605717717004673</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313" t="s">
+        <v>25</v>
+      </c>
+      <c r="C313">
+        <v>0.9468345813902779</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>14</v>
+      </c>
+      <c r="B314" t="s">
+        <v>15</v>
+      </c>
+      <c r="C314">
+        <v>0.9470679873716189</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315" t="s">
+        <v>22</v>
+      </c>
+      <c r="C315">
+        <v>0.8623013165031912</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" t="s">
+        <v>38</v>
+      </c>
+      <c r="C316">
+        <v>0.9309730218456786</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317" t="s">
+        <v>17</v>
+      </c>
+      <c r="C317">
+        <v>0.9480959705118492</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>14</v>
+      </c>
+      <c r="B318" t="s">
+        <v>16</v>
+      </c>
+      <c r="C318">
+        <v>0.9738843758652582</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319" t="s">
+        <v>40</v>
+      </c>
+      <c r="C319">
+        <v>-0.9471700516868442</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320" t="s">
+        <v>45</v>
+      </c>
+      <c r="C320">
+        <v>-0.9558594293235968</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>14</v>
+      </c>
+      <c r="B321" t="s">
+        <v>24</v>
+      </c>
+      <c r="C321">
+        <v>0.9428878771160474</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>14</v>
+      </c>
+      <c r="B322" t="s">
+        <v>36</v>
+      </c>
+      <c r="C322">
+        <v>-0.9279684275612535</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323">
+        <v>0.9191711181816323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>14</v>
+      </c>
+      <c r="B324" t="s">
+        <v>26</v>
+      </c>
+      <c r="C324">
+        <v>0.9427636088932604</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>14</v>
+      </c>
+      <c r="B325" t="s">
+        <v>31</v>
+      </c>
+      <c r="C325">
+        <v>0.9408549668693835</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>14</v>
+      </c>
+      <c r="B326" t="s">
+        <v>34</v>
+      </c>
+      <c r="C326">
+        <v>0.9405669188410503</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>14</v>
+      </c>
+      <c r="B327" t="s">
+        <v>30</v>
+      </c>
+      <c r="C327">
+        <v>0.9420720160476804</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>14</v>
+      </c>
+      <c r="B328" t="s">
+        <v>23</v>
+      </c>
+      <c r="C328">
+        <v>-0.870881049833323</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" t="s">
+        <v>35</v>
+      </c>
+      <c r="C329">
+        <v>0.9402460114344779</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>14</v>
+      </c>
+      <c r="B330" t="s">
+        <v>27</v>
+      </c>
+      <c r="C330">
+        <v>0.9645286139299852</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>14</v>
+      </c>
+      <c r="B331" t="s">
+        <v>41</v>
+      </c>
+      <c r="C331">
+        <v>-0.8709557207172509</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>14</v>
+      </c>
+      <c r="B332" t="s">
+        <v>21</v>
+      </c>
+      <c r="C332">
+        <v>0.8804973965256794</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>14</v>
+      </c>
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>0.88658693228932</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>14</v>
+      </c>
+      <c r="B334" t="s">
+        <v>42</v>
+      </c>
+      <c r="C334">
+        <v>-0.8718639757060692</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>15</v>
+      </c>
+      <c r="B335" t="s">
+        <v>21</v>
+      </c>
+      <c r="C335">
+        <v>0.9183733393728111</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>15</v>
+      </c>
+      <c r="B336" t="s">
+        <v>45</v>
+      </c>
+      <c r="C336">
+        <v>-0.9807792493375641</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337" t="s">
+        <v>28</v>
+      </c>
+      <c r="C337">
+        <v>-0.9798826363030082</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338" t="s">
+        <v>27</v>
+      </c>
+      <c r="C338">
+        <v>0.9637957399472594</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>16</v>
+      </c>
+      <c r="B339" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339">
+        <v>0.9602072306450828</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>16</v>
+      </c>
+      <c r="B340" t="s">
+        <v>17</v>
+      </c>
+      <c r="C340">
+        <v>0.9750060377140478</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>16</v>
+      </c>
+      <c r="B341" t="s">
+        <v>37</v>
+      </c>
+      <c r="C341">
+        <v>0.9423194239146849</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>16</v>
+      </c>
+      <c r="B342" t="s">
+        <v>27</v>
+      </c>
+      <c r="C342">
+        <v>0.959664987323313</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>16</v>
+      </c>
+      <c r="B343" t="s">
+        <v>38</v>
+      </c>
+      <c r="C343">
+        <v>0.9286656266966594</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>16</v>
+      </c>
+      <c r="B344" t="s">
+        <v>32</v>
+      </c>
+      <c r="C344">
+        <v>0.9776297745108383</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>16</v>
+      </c>
+      <c r="B345" t="s">
+        <v>22</v>
+      </c>
+      <c r="C345">
+        <v>0.8130957616031838</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>16</v>
+      </c>
+      <c r="B346" t="s">
+        <v>21</v>
+      </c>
+      <c r="C346">
+        <v>0.948838217446933</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>16</v>
+      </c>
+      <c r="B347" t="s">
+        <v>42</v>
+      </c>
+      <c r="C347">
+        <v>-0.9214766078320777</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>16</v>
+      </c>
+      <c r="B348" t="s">
+        <v>31</v>
+      </c>
+      <c r="C348">
+        <v>0.9774420720112422</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>16</v>
+      </c>
+      <c r="B349" t="s">
+        <v>25</v>
+      </c>
+      <c r="C349">
+        <v>0.9758338911368876</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>16</v>
+      </c>
+      <c r="B350" t="s">
+        <v>40</v>
+      </c>
+      <c r="C350">
+        <v>-0.963524855538555</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>16</v>
+      </c>
+      <c r="B351" t="s">
+        <v>41</v>
+      </c>
+      <c r="C351">
+        <v>-0.9207596745561314</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>16</v>
+      </c>
+      <c r="B352" t="s">
+        <v>39</v>
+      </c>
+      <c r="C352">
+        <v>-0.9628255173727891</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>16</v>
+      </c>
+      <c r="B353" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353">
+        <v>0.9083399402098158</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354" t="s">
+        <v>36</v>
+      </c>
+      <c r="C354">
+        <v>-0.8685981808025642</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>16</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355">
+        <v>0.9684480354713569</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>16</v>
+      </c>
+      <c r="B356" t="s">
+        <v>24</v>
+      </c>
+      <c r="C356">
+        <v>0.9316084876620302</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>16</v>
+      </c>
+      <c r="B357" t="s">
+        <v>33</v>
+      </c>
+      <c r="C357">
+        <v>0.9744813231690642</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>16</v>
+      </c>
+      <c r="B358" t="s">
+        <v>45</v>
+      </c>
+      <c r="C358">
+        <v>-0.9777372255690323</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>16</v>
+      </c>
+      <c r="B359" t="s">
+        <v>34</v>
+      </c>
+      <c r="C359">
+        <v>0.9779931273573156</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>16</v>
+      </c>
+      <c r="B360" t="s">
+        <v>28</v>
+      </c>
+      <c r="C360">
+        <v>-0.9781113786437396</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>16</v>
+      </c>
+      <c r="B361" t="s">
+        <v>35</v>
+      </c>
+      <c r="C361">
+        <v>0.977909155518308</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>16</v>
+      </c>
+      <c r="B362" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362">
+        <v>0.9778880482457137</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>16</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363">
+        <v>0.9778135449547305</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>16</v>
+      </c>
+      <c r="B364" t="s">
+        <v>18</v>
+      </c>
+      <c r="C364">
+        <v>0.9975276522104241</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>16</v>
+      </c>
+      <c r="B365" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365">
+        <v>-0.9233139874971193</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>17</v>
+      </c>
+      <c r="B366" t="s">
+        <v>21</v>
+      </c>
+      <c r="C366">
+        <v>0.9612980677707809</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>17</v>
+      </c>
+      <c r="B367" t="s">
+        <v>22</v>
+      </c>
+      <c r="C367">
+        <v>0.8706322550816247</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>17</v>
+      </c>
+      <c r="B368" t="s">
+        <v>37</v>
+      </c>
+      <c r="C368">
+        <v>0.9307471903641173</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>17</v>
+      </c>
+      <c r="B369" t="s">
+        <v>36</v>
+      </c>
+      <c r="C369">
+        <v>-0.8675392701257878</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>17</v>
+      </c>
+      <c r="B370" t="s">
+        <v>40</v>
+      </c>
+      <c r="C370">
+        <v>-0.9860925075582956</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>17</v>
+      </c>
+      <c r="B371" t="s">
+        <v>38</v>
+      </c>
+      <c r="C371">
+        <v>0.968132681467834</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>17</v>
+      </c>
+      <c r="B372" t="s">
+        <v>32</v>
+      </c>
+      <c r="C372">
+        <v>0.9930860833205598</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>17</v>
+      </c>
+      <c r="B373" t="s">
+        <v>39</v>
+      </c>
+      <c r="C373">
+        <v>-0.9857661457107402</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>17</v>
+      </c>
+      <c r="B374" t="s">
+        <v>33</v>
+      </c>
+      <c r="C374">
+        <v>0.9916391600515273</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>17</v>
+      </c>
+      <c r="B375" t="s">
+        <v>27</v>
+      </c>
+      <c r="C375">
+        <v>0.9697927131140879</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>17</v>
+      </c>
+      <c r="B376" t="s">
+        <v>24</v>
+      </c>
+      <c r="C376">
+        <v>0.9712536565387754</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>17</v>
+      </c>
+      <c r="B377" t="s">
+        <v>34</v>
+      </c>
+      <c r="C377">
+        <v>0.991446030187471</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>17</v>
+      </c>
+      <c r="B378" t="s">
+        <v>35</v>
+      </c>
+      <c r="C378">
+        <v>0.9913771334704562</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>17</v>
+      </c>
+      <c r="B379" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379">
+        <v>-0.8882414468941947</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>17</v>
+      </c>
+      <c r="B380" t="s">
+        <v>30</v>
+      </c>
+      <c r="C380">
+        <v>0.9932374142713035</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>17</v>
+      </c>
+      <c r="B381" t="s">
+        <v>26</v>
+      </c>
+      <c r="C381">
+        <v>0.9938926018966258</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>17</v>
+      </c>
+      <c r="B382" t="s">
+        <v>15</v>
+      </c>
+      <c r="C382">
+        <v>0.9876412160643201</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>17</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383">
+        <v>0.9719628993859967</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>17</v>
+      </c>
+      <c r="B384" t="s">
+        <v>31</v>
+      </c>
+      <c r="C384">
+        <v>0.9929302092774184</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>17</v>
+      </c>
+      <c r="B385" t="s">
+        <v>29</v>
+      </c>
+      <c r="C385">
+        <v>0.986965695029639</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>17</v>
+      </c>
+      <c r="B386" t="s">
+        <v>19</v>
+      </c>
+      <c r="C386">
+        <v>0.6959439346595572</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>17</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387">
+        <v>0.9728809484125015</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>17</v>
+      </c>
+      <c r="B388" t="s">
+        <v>45</v>
+      </c>
+      <c r="C388">
+        <v>-0.9954934790854141</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>17</v>
+      </c>
+      <c r="B389" t="s">
+        <v>42</v>
+      </c>
+      <c r="C389">
+        <v>-0.9347241201207576</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>17</v>
+      </c>
+      <c r="B390" t="s">
+        <v>28</v>
+      </c>
+      <c r="C390">
+        <v>-0.9959534590095226</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>17</v>
+      </c>
+      <c r="B391" t="s">
+        <v>41</v>
+      </c>
+      <c r="C391">
+        <v>-0.9340192883576605</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>17</v>
+      </c>
+      <c r="B392" t="s">
+        <v>25</v>
+      </c>
+      <c r="C392">
+        <v>0.994927367190572</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>18</v>
+      </c>
+      <c r="B393" t="s">
+        <v>24</v>
+      </c>
+      <c r="C393">
+        <v>0.9201844730514868</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" t="s">
+        <v>42</v>
+      </c>
+      <c r="C394">
+        <v>-0.9381361176551946</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>18</v>
+      </c>
+      <c r="B395" t="s">
+        <v>41</v>
+      </c>
+      <c r="C395">
+        <v>-0.9375139931479114</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" t="s">
+        <v>25</v>
+      </c>
+      <c r="C396">
+        <v>0.9787550194588647</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" t="s">
+        <v>37</v>
+      </c>
+      <c r="C397">
+        <v>0.952735062731515</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" t="s">
+        <v>23</v>
+      </c>
+      <c r="C398">
+        <v>-0.9353487532187917</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>18</v>
+      </c>
+      <c r="B399" t="s">
+        <v>33</v>
+      </c>
+      <c r="C399">
+        <v>0.9806397698189014</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400">
+        <v>0.9807480432891172</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401" t="s">
+        <v>28</v>
+      </c>
+      <c r="C401">
+        <v>-0.97812092935033</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" t="s">
+        <v>32</v>
+      </c>
+      <c r="C402">
+        <v>0.9828329978451108</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>18</v>
+      </c>
+      <c r="B403" t="s">
+        <v>45</v>
+      </c>
+      <c r="C403">
+        <v>-0.9768248277863374</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404" t="s">
+        <v>38</v>
+      </c>
+      <c r="C404">
+        <v>0.9180052245152851</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405" t="s">
+        <v>30</v>
+      </c>
+      <c r="C405">
+        <v>0.9828448798517396</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>18</v>
+      </c>
+      <c r="B406" t="s">
+        <v>34</v>
+      </c>
+      <c r="C406">
+        <v>0.9838573201993949</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>18</v>
+      </c>
+      <c r="B407" t="s">
+        <v>40</v>
+      </c>
+      <c r="C407">
+        <v>-0.9639964075500358</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>18</v>
+      </c>
+      <c r="B408" t="s">
+        <v>35</v>
+      </c>
+      <c r="C408">
+        <v>0.9838589387231413</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>18</v>
+      </c>
+      <c r="B409" t="s">
+        <v>39</v>
+      </c>
+      <c r="C409">
+        <v>-0.9638156197232667</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>18</v>
+      </c>
+      <c r="B410" t="s">
+        <v>31</v>
+      </c>
+      <c r="C410">
+        <v>0.982815075036709</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>18</v>
+      </c>
+      <c r="B411" t="s">
+        <v>21</v>
+      </c>
+      <c r="C411">
+        <v>0.9668812950015511</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>18</v>
+      </c>
+      <c r="B412" t="s">
+        <v>27</v>
+      </c>
+      <c r="C412">
+        <v>0.9485785776050069</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>18</v>
+      </c>
+      <c r="B413" t="s">
+        <v>36</v>
+      </c>
+      <c r="C413">
+        <v>-0.836850109171266</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" t="s">
+        <v>15</v>
+      </c>
+      <c r="C414">
+        <v>0.9526961682510587</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>18</v>
+      </c>
+      <c r="B415" t="s">
+        <v>22</v>
+      </c>
+      <c r="C415">
+        <v>0.7896241614006626</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>19</v>
+      </c>
+      <c r="B416" t="s">
+        <v>24</v>
+      </c>
+      <c r="C416">
+        <v>0.8197557247872376</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>19</v>
+      </c>
+      <c r="B417" t="s">
+        <v>27</v>
+      </c>
+      <c r="C417">
+        <v>0.7712881840837599</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>19</v>
+      </c>
+      <c r="B418" t="s">
+        <v>28</v>
+      </c>
+      <c r="C418">
+        <v>-0.704132681880974</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>19</v>
+      </c>
+      <c r="B419" t="s">
+        <v>26</v>
+      </c>
+      <c r="C419">
+        <v>0.6693835520802028</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>19</v>
+      </c>
+      <c r="B420" t="s">
+        <v>45</v>
+      </c>
+      <c r="C420">
+        <v>-0.7111138466547632</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>19</v>
+      </c>
+      <c r="B421" t="s">
+        <v>36</v>
+      </c>
+      <c r="C421">
+        <v>-0.8401938250335361</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>19</v>
+      </c>
+      <c r="B422" t="s">
+        <v>39</v>
+      </c>
+      <c r="C422">
+        <v>-0.7184381489589922</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>19</v>
+      </c>
+      <c r="B423" t="s">
+        <v>20</v>
+      </c>
+      <c r="C423">
+        <v>0.9038836006986301</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>19</v>
+      </c>
+      <c r="B424" t="s">
+        <v>25</v>
+      </c>
+      <c r="C424">
+        <v>0.6857274529792241</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>19</v>
+      </c>
+      <c r="B425" t="s">
+        <v>15</v>
+      </c>
+      <c r="C425">
+        <v>0.73607069087524</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>19</v>
+      </c>
+      <c r="B426" t="s">
+        <v>22</v>
+      </c>
+      <c r="C426">
+        <v>0.8967252972702994</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>19</v>
+      </c>
+      <c r="B427" t="s">
+        <v>10</v>
+      </c>
+      <c r="C427">
+        <v>0.7682872407194936</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>19</v>
+      </c>
+      <c r="B428" t="s">
+        <v>40</v>
+      </c>
+      <c r="C428">
+        <v>-0.7237795987297583</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>19</v>
+      </c>
+      <c r="B429" t="s">
+        <v>38</v>
+      </c>
+      <c r="C429">
+        <v>0.7889582326888405</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>20</v>
+      </c>
+      <c r="B430" t="s">
+        <v>22</v>
+      </c>
+      <c r="C430">
+        <v>0.7415024292667713</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>21</v>
+      </c>
+      <c r="B431" t="s">
+        <v>45</v>
+      </c>
+      <c r="C431">
+        <v>-0.9577671789396277</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>21</v>
+      </c>
+      <c r="B432" t="s">
+        <v>28</v>
+      </c>
+      <c r="C432">
+        <v>-0.961691728025266</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>21</v>
+      </c>
+      <c r="B433" t="s">
+        <v>27</v>
+      </c>
+      <c r="C433">
+        <v>0.8970328846925074</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>22</v>
+      </c>
+      <c r="B434" t="s">
+        <v>35</v>
+      </c>
+      <c r="C434">
+        <v>0.8378872624014917</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>22</v>
+      </c>
+      <c r="B435" t="s">
+        <v>25</v>
+      </c>
+      <c r="C435">
+        <v>0.867026868303004</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>22</v>
+      </c>
+      <c r="B436" t="s">
+        <v>26</v>
+      </c>
+      <c r="C436">
+        <v>0.8536511760608135</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>22</v>
+      </c>
+      <c r="B437" t="s">
+        <v>34</v>
+      </c>
+      <c r="C437">
+        <v>0.8385098982817674</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>22</v>
+      </c>
+      <c r="B438" t="s">
+        <v>31</v>
+      </c>
+      <c r="C438">
+        <v>0.8435305813904457</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>22</v>
+      </c>
+      <c r="B439" t="s">
+        <v>30</v>
+      </c>
+      <c r="C439">
+        <v>0.845758122619492</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>22</v>
+      </c>
+      <c r="B440" t="s">
+        <v>32</v>
+      </c>
+      <c r="C440">
+        <v>0.844640505396124</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>22</v>
+      </c>
+      <c r="B441" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441">
+        <v>0.7855442199840994</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>22</v>
+      </c>
+      <c r="B442" t="s">
+        <v>29</v>
+      </c>
+      <c r="C442">
+        <v>0.8231914614385188</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>22</v>
+      </c>
+      <c r="B443" t="s">
+        <v>37</v>
+      </c>
+      <c r="C443">
+        <v>0.6797919743307052</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>22</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444">
+        <v>0.8750244980962451</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>22</v>
+      </c>
+      <c r="B445" t="s">
+        <v>27</v>
+      </c>
+      <c r="C445">
+        <v>0.9176014414312793</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>22</v>
+      </c>
+      <c r="B446" t="s">
+        <v>23</v>
+      </c>
+      <c r="C446">
+        <v>-0.6696808780464616</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>22</v>
+      </c>
+      <c r="B447" t="s">
+        <v>41</v>
+      </c>
+      <c r="C447">
+        <v>-0.7015167318196039</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>22</v>
+      </c>
+      <c r="B448" t="s">
+        <v>40</v>
+      </c>
+      <c r="C448">
+        <v>-0.8876446703303889</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>22</v>
+      </c>
+      <c r="B449" t="s">
+        <v>45</v>
+      </c>
+      <c r="C449">
+        <v>-0.8838901020262571</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>22</v>
+      </c>
+      <c r="B450" t="s">
+        <v>42</v>
+      </c>
+      <c r="C450">
+        <v>-0.7028670788374872</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>22</v>
+      </c>
+      <c r="B451" t="s">
+        <v>39</v>
+      </c>
+      <c r="C451">
+        <v>-0.883737564664808</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>22</v>
+      </c>
+      <c r="B452" t="s">
+        <v>28</v>
+      </c>
+      <c r="C452">
+        <v>-0.8784250547537207</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>22</v>
+      </c>
+      <c r="B453" t="s">
+        <v>15</v>
+      </c>
+      <c r="C453">
+        <v>0.9033337023679898</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454" t="s">
+        <v>38</v>
+      </c>
+      <c r="C454">
+        <v>0.9438419865029697</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>22</v>
+      </c>
+      <c r="B455" t="s">
+        <v>24</v>
+      </c>
+      <c r="C455">
+        <v>0.9614827901523401</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" t="s">
+        <v>21</v>
+      </c>
+      <c r="C456">
+        <v>0.7343840887192127</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>22</v>
+      </c>
+      <c r="B457" t="s">
+        <v>36</v>
+      </c>
+      <c r="C457">
+        <v>-0.9442040915092438</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>23</v>
+      </c>
+      <c r="B458" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458">
+        <v>-0.9456040216627588</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>23</v>
+      </c>
+      <c r="B459" t="s">
+        <v>30</v>
+      </c>
+      <c r="C459">
+        <v>-0.9240561294018093</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>23</v>
+      </c>
+      <c r="B460" t="s">
+        <v>28</v>
+      </c>
+      <c r="C460">
+        <v>0.9104410031367027</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>23</v>
+      </c>
+      <c r="B461" t="s">
+        <v>15</v>
+      </c>
+      <c r="C461">
+        <v>-0.8478109619125497</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>23</v>
+      </c>
+      <c r="B462" t="s">
+        <v>38</v>
+      </c>
+      <c r="C462">
+        <v>-0.8158915688992963</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>23</v>
+      </c>
+      <c r="B463" t="s">
+        <v>24</v>
+      </c>
+      <c r="C463">
+        <v>-0.8128715064823101</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>23</v>
+      </c>
+      <c r="B464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464">
+        <v>-0.7984477746580541</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>23</v>
+      </c>
+      <c r="B465" t="s">
+        <v>27</v>
+      </c>
+      <c r="C465">
+        <v>-0.8894684508791075</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>23</v>
+      </c>
+      <c r="B466" t="s">
+        <v>37</v>
+      </c>
+      <c r="C466">
+        <v>-0.8897490975783122</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>23</v>
+      </c>
+      <c r="B467" t="s">
+        <v>40</v>
+      </c>
+      <c r="C467">
+        <v>0.8784436141460864</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>23</v>
+      </c>
+      <c r="B468" t="s">
+        <v>29</v>
+      </c>
+      <c r="C468">
+        <v>-0.9362581212408552</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>23</v>
+      </c>
+      <c r="B469" t="s">
+        <v>25</v>
+      </c>
+      <c r="C469">
+        <v>-0.9131124928968321</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>23</v>
+      </c>
+      <c r="B470" t="s">
+        <v>26</v>
+      </c>
+      <c r="C470">
+        <v>-0.918076141968973</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>23</v>
+      </c>
+      <c r="B471" t="s">
+        <v>45</v>
+      </c>
+      <c r="C471">
+        <v>0.9084651225081677</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>23</v>
+      </c>
+      <c r="B472" t="s">
+        <v>31</v>
+      </c>
+      <c r="C472">
+        <v>-0.9244708794990896</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>23</v>
+      </c>
+      <c r="B473" t="s">
+        <v>41</v>
+      </c>
+      <c r="C473">
+        <v>0.8645143885968344</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>23</v>
+      </c>
+      <c r="B474" t="s">
+        <v>42</v>
+      </c>
+      <c r="C474">
+        <v>0.8653501326175629</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>23</v>
+      </c>
+      <c r="B475" t="s">
+        <v>36</v>
+      </c>
+      <c r="C475">
+        <v>0.7422869970662334</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>23</v>
+      </c>
+      <c r="B476" t="s">
+        <v>32</v>
+      </c>
+      <c r="C476">
+        <v>-0.9242677538544422</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>23</v>
+      </c>
+      <c r="B477" t="s">
+        <v>39</v>
+      </c>
+      <c r="C477">
+        <v>0.8758291853234937</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>23</v>
+      </c>
+      <c r="B478" t="s">
+        <v>35</v>
+      </c>
+      <c r="C478">
+        <v>-0.9283724370181815</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>23</v>
+      </c>
+      <c r="B479" t="s">
+        <v>34</v>
+      </c>
+      <c r="C479">
+        <v>-0.9283186998630065</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>23</v>
+      </c>
+      <c r="B480" t="s">
+        <v>33</v>
+      </c>
+      <c r="C480">
+        <v>-0.9257884474975729</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>23</v>
+      </c>
+      <c r="B481" t="s">
+        <v>21</v>
+      </c>
+      <c r="C481">
+        <v>-0.9254735899247519</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>24</v>
+      </c>
+      <c r="B482" t="s">
+        <v>35</v>
+      </c>
+      <c r="C482">
+        <v>0.9515329840149991</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>24</v>
+      </c>
+      <c r="B483" t="s">
+        <v>33</v>
+      </c>
+      <c r="C483">
+        <v>0.9523503874447524</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>24</v>
+      </c>
+      <c r="B484" t="s">
+        <v>25</v>
+      </c>
+      <c r="C484">
+        <v>0.9675492638167361</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>24</v>
+      </c>
+      <c r="B485" t="s">
+        <v>29</v>
+      </c>
+      <c r="C485">
+        <v>0.942119509208629</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>24</v>
+      </c>
+      <c r="B486" t="s">
+        <v>41</v>
+      </c>
+      <c r="C486">
+        <v>-0.8612824513519702</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>24</v>
+      </c>
+      <c r="B487" t="s">
+        <v>42</v>
+      </c>
+      <c r="C487">
+        <v>-0.8622961534404271</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>24</v>
+      </c>
+      <c r="B488" t="s">
+        <v>21</v>
+      </c>
+      <c r="C488">
+        <v>0.8845781816048284</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>24</v>
+      </c>
+      <c r="B489" t="s">
+        <v>34</v>
+      </c>
+      <c r="C489">
+        <v>0.9518758840838578</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>24</v>
+      </c>
+      <c r="B490" t="s">
+        <v>27</v>
+      </c>
+      <c r="C490">
+        <v>0.9784735164174184</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>24</v>
+      </c>
+      <c r="B491" t="s">
+        <v>6</v>
+      </c>
+      <c r="C491">
+        <v>0.9161968322068811</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>24</v>
+      </c>
+      <c r="B492" t="s">
+        <v>36</v>
+      </c>
+      <c r="C492">
+        <v>-0.9359279018968339</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>24</v>
+      </c>
+      <c r="B493" t="s">
+        <v>15</v>
+      </c>
+      <c r="C493">
+        <v>0.9788445173641197</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>24</v>
+      </c>
+      <c r="B494" t="s">
+        <v>26</v>
+      </c>
+      <c r="C494">
+        <v>0.9605892130634888</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>24</v>
+      </c>
+      <c r="B495" t="s">
+        <v>30</v>
+      </c>
+      <c r="C495">
+        <v>0.9563220614593045</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>24</v>
+      </c>
+      <c r="B496" t="s">
+        <v>32</v>
+      </c>
+      <c r="C496">
+        <v>0.9556921241281315</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>24</v>
+      </c>
+      <c r="B497" t="s">
+        <v>31</v>
+      </c>
+      <c r="C497">
+        <v>0.9550634681302702</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>24</v>
+      </c>
+      <c r="B498" t="s">
+        <v>10</v>
+      </c>
+      <c r="C498">
+        <v>0.9573086006434411</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>24</v>
+      </c>
+      <c r="B499" t="s">
+        <v>37</v>
+      </c>
+      <c r="C499">
+        <v>0.8425540728786681</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>24</v>
+      </c>
+      <c r="B500" t="s">
+        <v>39</v>
+      </c>
+      <c r="C500">
+        <v>-0.973504044291292</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>24</v>
+      </c>
+      <c r="B501" t="s">
+        <v>28</v>
+      </c>
+      <c r="C501">
+        <v>-0.9736169161667291</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>24</v>
+      </c>
+      <c r="B502" t="s">
+        <v>40</v>
+      </c>
+      <c r="C502">
+        <v>-0.9754060893858202</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>24</v>
+      </c>
+      <c r="B503" t="s">
+        <v>38</v>
+      </c>
+      <c r="C503">
+        <v>0.9869991869005511</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>24</v>
+      </c>
+      <c r="B504" t="s">
+        <v>45</v>
+      </c>
+      <c r="C504">
+        <v>-0.9760041912376386</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>25</v>
+      </c>
+      <c r="B505" t="s">
+        <v>26</v>
+      </c>
+      <c r="C505">
+        <v>0.9996171099880037</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>25</v>
+      </c>
+      <c r="B506" t="s">
+        <v>30</v>
+      </c>
+      <c r="C506">
+        <v>0.9991216574321169</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>25</v>
+      </c>
+      <c r="B507" t="s">
+        <v>32</v>
+      </c>
+      <c r="C507">
+        <v>0.9990339405834521</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>25</v>
+      </c>
+      <c r="B508" t="s">
+        <v>31</v>
+      </c>
+      <c r="C508">
+        <v>0.9989408425994406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>25</v>
+      </c>
+      <c r="B509" t="s">
+        <v>34</v>
+      </c>
+      <c r="C509">
+        <v>0.9984175952396774</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>25</v>
+      </c>
+      <c r="B510" t="s">
+        <v>21</v>
+      </c>
+      <c r="C510">
+        <v>0.9714951324928617</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>25</v>
+      </c>
+      <c r="B511" t="s">
+        <v>29</v>
+      </c>
+      <c r="C511">
+        <v>0.9961265832466425</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>25</v>
+      </c>
+      <c r="B512" t="s">
+        <v>38</v>
+      </c>
+      <c r="C512">
+        <v>0.9594643143875889</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>25</v>
+      </c>
+      <c r="B513" t="s">
+        <v>6</v>
+      </c>
+      <c r="C513">
+        <v>0.9868709175830399</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>25</v>
+      </c>
+      <c r="B514" t="s">
+        <v>10</v>
+      </c>
+      <c r="C514">
+        <v>0.9541600561466331</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>25</v>
+      </c>
+      <c r="B515" t="s">
+        <v>27</v>
+      </c>
+      <c r="C515">
+        <v>0.9724423078467115</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>25</v>
+      </c>
+      <c r="B516" t="s">
+        <v>35</v>
+      </c>
+      <c r="C516">
+        <v>0.9983569781849196</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>25</v>
+      </c>
+      <c r="B517" t="s">
+        <v>33</v>
+      </c>
+      <c r="C517">
+        <v>0.9983281679331546</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>25</v>
+      </c>
+      <c r="B518" t="s">
+        <v>28</v>
+      </c>
+      <c r="C518">
+        <v>-0.9988948613858375</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>25</v>
+      </c>
+      <c r="B519" t="s">
+        <v>41</v>
+      </c>
+      <c r="C519">
+        <v>-0.939107168293192</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>25</v>
+      </c>
+      <c r="B520" t="s">
+        <v>45</v>
+      </c>
+      <c r="C520">
+        <v>-0.9982403840621622</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>25</v>
+      </c>
+      <c r="B521" t="s">
+        <v>39</v>
+      </c>
+      <c r="C521">
+        <v>-0.9911429163989518</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>25</v>
+      </c>
+      <c r="B522" t="s">
+        <v>37</v>
+      </c>
+      <c r="C522">
+        <v>0.926966217365877</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>25</v>
+      </c>
+      <c r="B523" t="s">
+        <v>36</v>
+      </c>
+      <c r="C523">
+        <v>-0.8605584117018625</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>25</v>
+      </c>
+      <c r="B524" t="s">
+        <v>40</v>
+      </c>
+      <c r="C524">
+        <v>-0.9917714180765729</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>25</v>
+      </c>
+      <c r="B525" t="s">
+        <v>42</v>
+      </c>
+      <c r="C525">
+        <v>-0.9398522009743465</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>26</v>
+      </c>
+      <c r="B526" t="s">
+        <v>15</v>
+      </c>
+      <c r="C526">
+        <v>0.970821758853798</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>26</v>
+      </c>
+      <c r="B527" t="s">
+        <v>37</v>
+      </c>
+      <c r="C527">
+        <v>0.9324831249431607</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>26</v>
+      </c>
+      <c r="B528" t="s">
+        <v>40</v>
+      </c>
+      <c r="C528">
+        <v>-0.9899049748708474</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>26</v>
+      </c>
+      <c r="B529" t="s">
+        <v>39</v>
+      </c>
+      <c r="C529">
+        <v>-0.9894661745503066</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>26</v>
+      </c>
+      <c r="B530" t="s">
+        <v>21</v>
+      </c>
+      <c r="C530">
+        <v>0.9772046187678256</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>26</v>
+      </c>
+      <c r="B531" t="s">
+        <v>33</v>
+      </c>
+      <c r="C531">
+        <v>0.9994403927881985</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>26</v>
+      </c>
+      <c r="B532" t="s">
+        <v>35</v>
+      </c>
+      <c r="C532">
+        <v>0.9994537713474375</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>26</v>
+      </c>
+      <c r="B533" t="s">
+        <v>28</v>
+      </c>
+      <c r="C533">
+        <v>-0.9977511141778136</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>26</v>
+      </c>
+      <c r="B534" t="s">
+        <v>45</v>
+      </c>
+      <c r="C534">
+        <v>-0.9967556680648503</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>26</v>
+      </c>
+      <c r="B535" t="s">
+        <v>6</v>
+      </c>
+      <c r="C535">
+        <v>0.9903166539364519</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>26</v>
+      </c>
+      <c r="B536" t="s">
+        <v>32</v>
+      </c>
+      <c r="C536">
+        <v>0.999787745545909</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>26</v>
+      </c>
+      <c r="B537" t="s">
+        <v>41</v>
+      </c>
+      <c r="C537">
+        <v>-0.94468125999937</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>26</v>
+      </c>
+      <c r="B538" t="s">
+        <v>27</v>
+      </c>
+      <c r="C538">
+        <v>0.9677588306582683</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>26</v>
+      </c>
+      <c r="B539" t="s">
+        <v>38</v>
+      </c>
+      <c r="C539">
+        <v>0.9521394341920328</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>26</v>
+      </c>
+      <c r="B540" t="s">
+        <v>42</v>
+      </c>
+      <c r="C540">
+        <v>-0.9453873831545173</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>26</v>
+      </c>
+      <c r="B541" t="s">
+        <v>29</v>
+      </c>
+      <c r="C541">
+        <v>0.9979216861521252</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>26</v>
+      </c>
+      <c r="B542" t="s">
+        <v>10</v>
+      </c>
+      <c r="C542">
+        <v>0.9516580269343919</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>26</v>
+      </c>
+      <c r="B543" t="s">
+        <v>36</v>
+      </c>
+      <c r="C543">
+        <v>-0.8484036717592612</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>26</v>
+      </c>
+      <c r="B544" t="s">
+        <v>31</v>
+      </c>
+      <c r="C544">
+        <v>0.9997542777930266</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>27</v>
+      </c>
+      <c r="B545" t="s">
+        <v>45</v>
+      </c>
+      <c r="C545">
+        <v>-0.983605813486346</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>27</v>
+      </c>
+      <c r="B546" t="s">
+        <v>28</v>
+      </c>
+      <c r="C546">
+        <v>-0.9811736925288359</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>28</v>
+      </c>
+      <c r="B547" t="s">
+        <v>45</v>
+      </c>
+      <c r="C547">
+        <v>0.9998982761899635</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>29</v>
+      </c>
+      <c r="B548" t="s">
+        <v>30</v>
+      </c>
+      <c r="C548">
+        <v>0.9986910787598808</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>29</v>
+      </c>
+      <c r="B549" t="s">
+        <v>39</v>
+      </c>
+      <c r="C549">
+        <v>-0.9823087833125276</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>29</v>
+      </c>
+      <c r="B550" t="s">
+        <v>36</v>
+      </c>
+      <c r="C550">
+        <v>-0.8253359643788789</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>29</v>
+      </c>
+      <c r="B551" t="s">
+        <v>40</v>
+      </c>
+      <c r="C551">
+        <v>-0.9825850147274923</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>29</v>
+      </c>
+      <c r="B552" t="s">
+        <v>21</v>
+      </c>
+      <c r="C552">
+        <v>0.9856502627961813</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>29</v>
+      </c>
+      <c r="B553" t="s">
+        <v>42</v>
+      </c>
+      <c r="C553">
+        <v>-0.950508062659106</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>29</v>
+      </c>
+      <c r="B554" t="s">
+        <v>41</v>
+      </c>
+      <c r="C554">
+        <v>-0.949851176274103</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>29</v>
+      </c>
+      <c r="B555" t="s">
+        <v>45</v>
+      </c>
+      <c r="C555">
+        <v>-0.9910053372421382</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>29</v>
+      </c>
+      <c r="B556" t="s">
+        <v>32</v>
+      </c>
+      <c r="C556">
+        <v>0.9987756604459873</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>29</v>
+      </c>
+      <c r="B557" t="s">
+        <v>28</v>
+      </c>
+      <c r="C557">
+        <v>-0.992601108674136</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>29</v>
+      </c>
+      <c r="B558" t="s">
+        <v>33</v>
+      </c>
+      <c r="C558">
+        <v>0.998938620817682</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>29</v>
+      </c>
+      <c r="B559" t="s">
+        <v>31</v>
+      </c>
+      <c r="C559">
+        <v>0.9988528405263063</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>29</v>
+      </c>
+      <c r="B560" t="s">
+        <v>37</v>
+      </c>
+      <c r="C560">
+        <v>0.9396069198509859</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>29</v>
+      </c>
+      <c r="B561" t="s">
+        <v>35</v>
+      </c>
+      <c r="C561">
+        <v>0.99943847578973</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>29</v>
+      </c>
+      <c r="B562" t="s">
+        <v>10</v>
+      </c>
+      <c r="C562">
+        <v>0.9349153455613159</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>29</v>
+      </c>
+      <c r="B563" t="s">
+        <v>27</v>
+      </c>
+      <c r="C563">
+        <v>0.9573341628284657</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>29</v>
+      </c>
+      <c r="B564" t="s">
+        <v>15</v>
+      </c>
+      <c r="C564">
+        <v>0.9580550657140162</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>29</v>
+      </c>
+      <c r="B565" t="s">
+        <v>38</v>
+      </c>
+      <c r="C565">
+        <v>0.9348432273978757</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>29</v>
+      </c>
+      <c r="B566" t="s">
+        <v>34</v>
+      </c>
+      <c r="C566">
+        <v>0.9994122611911502</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>30</v>
+      </c>
+      <c r="B567" t="s">
+        <v>32</v>
+      </c>
+      <c r="C567">
+        <v>0.9999967347334301</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>30</v>
+      </c>
+      <c r="B568" t="s">
+        <v>15</v>
+      </c>
+      <c r="C568">
+        <v>0.9696671176463706</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>30</v>
+      </c>
+      <c r="B569" t="s">
+        <v>33</v>
+      </c>
+      <c r="C569">
+        <v>0.9996735856388748</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>30</v>
+      </c>
+      <c r="B570" t="s">
+        <v>10</v>
+      </c>
+      <c r="C570">
+        <v>0.9487966925986561</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>30</v>
+      </c>
+      <c r="B571" t="s">
+        <v>21</v>
+      </c>
+      <c r="C571">
+        <v>0.9794472165820238</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>30</v>
+      </c>
+      <c r="B572" t="s">
+        <v>31</v>
+      </c>
+      <c r="C572">
+        <v>0.9999870947277043</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>30</v>
+      </c>
+      <c r="B573" t="s">
+        <v>34</v>
+      </c>
+      <c r="C573">
+        <v>0.9998568902516592</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>30</v>
+      </c>
+      <c r="B574" t="s">
+        <v>35</v>
+      </c>
+      <c r="C574">
+        <v>0.9998420935341632</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>30</v>
+      </c>
+      <c r="B575" t="s">
+        <v>36</v>
+      </c>
+      <c r="C575">
+        <v>-0.8438903210909758</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>30</v>
+      </c>
+      <c r="B576" t="s">
+        <v>41</v>
+      </c>
+      <c r="C576">
+        <v>-0.9458600703666952</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>30</v>
+      </c>
+      <c r="B577" t="s">
+        <v>38</v>
+      </c>
+      <c r="C577">
+        <v>0.949536963854275</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>30</v>
+      </c>
+      <c r="B578" t="s">
+        <v>27</v>
+      </c>
+      <c r="C578">
+        <v>0.965971431147723</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>30</v>
+      </c>
+      <c r="B579" t="s">
+        <v>6</v>
+      </c>
+      <c r="C579">
+        <v>0.9918918368538543</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>30</v>
+      </c>
+      <c r="B580" t="s">
+        <v>42</v>
+      </c>
+      <c r="C580">
+        <v>-0.9465585505200166</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>30</v>
+      </c>
+      <c r="B581" t="s">
+        <v>37</v>
+      </c>
+      <c r="C581">
+        <v>0.9366631674399235</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>30</v>
+      </c>
+      <c r="B582" t="s">
+        <v>45</v>
+      </c>
+      <c r="C582">
+        <v>-0.9959732323597875</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>30</v>
+      </c>
+      <c r="B583" t="s">
+        <v>39</v>
+      </c>
+      <c r="C583">
+        <v>-0.9877070990009184</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>30</v>
+      </c>
+      <c r="B584" t="s">
+        <v>28</v>
+      </c>
+      <c r="C584">
+        <v>-0.9971023735710414</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>30</v>
+      </c>
+      <c r="B585" t="s">
+        <v>40</v>
+      </c>
+      <c r="C585">
+        <v>-0.9881412177278941</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>31</v>
+      </c>
+      <c r="B586" t="s">
+        <v>6</v>
+      </c>
+      <c r="C586">
+        <v>0.9923940059177646</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>31</v>
+      </c>
+      <c r="B587" t="s">
+        <v>32</v>
+      </c>
+      <c r="C587">
+        <v>0.9999968123839702</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" t="s">
+        <v>31</v>
+      </c>
+      <c r="B588" t="s">
+        <v>38</v>
+      </c>
+      <c r="C588">
+        <v>0.9484507837325499</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" t="s">
+        <v>31</v>
+      </c>
+      <c r="B589" t="s">
+        <v>28</v>
+      </c>
+      <c r="C589">
+        <v>-0.9967150706995043</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>31</v>
+      </c>
+      <c r="B590" t="s">
+        <v>21</v>
+      </c>
+      <c r="C590">
+        <v>0.9804407739588552</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" t="s">
+        <v>31</v>
+      </c>
+      <c r="B591" t="s">
+        <v>41</v>
+      </c>
+      <c r="C591">
+        <v>-0.9467576365312362</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" t="s">
+        <v>31</v>
+      </c>
+      <c r="B592" t="s">
+        <v>10</v>
+      </c>
+      <c r="C592">
+        <v>0.948256088284768</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>31</v>
+      </c>
+      <c r="B593" t="s">
+        <v>42</v>
+      </c>
+      <c r="C593">
+        <v>-0.9474477449425074</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>31</v>
+      </c>
+      <c r="B594" t="s">
+        <v>45</v>
+      </c>
+      <c r="C594">
+        <v>-0.9955152077008333</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>31</v>
+      </c>
+      <c r="B595" t="s">
+        <v>15</v>
+      </c>
+      <c r="C595">
+        <v>0.9688936352358988</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>31</v>
+      </c>
+      <c r="B596" t="s">
+        <v>37</v>
+      </c>
+      <c r="C596">
+        <v>0.9373003594699755</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>31</v>
+      </c>
+      <c r="B597" t="s">
+        <v>39</v>
+      </c>
+      <c r="C597">
+        <v>-0.9873890708469565</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>31</v>
+      </c>
+      <c r="B598" t="s">
+        <v>27</v>
+      </c>
+      <c r="C598">
+        <v>0.9646967501671438</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>31</v>
+      </c>
+      <c r="B599" t="s">
+        <v>35</v>
+      </c>
+      <c r="C599">
+        <v>0.9998949571444561</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>31</v>
+      </c>
+      <c r="B600" t="s">
+        <v>40</v>
+      </c>
+      <c r="C600">
+        <v>-0.9877762811246299</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>31</v>
+      </c>
+      <c r="B601" t="s">
+        <v>36</v>
+      </c>
+      <c r="C601">
+        <v>-0.8411729154662393</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>32</v>
+      </c>
+      <c r="B602" t="s">
+        <v>42</v>
+      </c>
+      <c r="C602">
+        <v>-0.9470089561745083</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>32</v>
+      </c>
+      <c r="B603" t="s">
+        <v>35</v>
+      </c>
+      <c r="C603">
+        <v>0.9998719067329089</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>32</v>
+      </c>
+      <c r="B604" t="s">
+        <v>21</v>
+      </c>
+      <c r="C604">
+        <v>0.9799501498657522</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>32</v>
+      </c>
+      <c r="B605" t="s">
+        <v>34</v>
+      </c>
+      <c r="C605">
+        <v>0.9998832756616356</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>32</v>
+      </c>
+      <c r="B606" t="s">
+        <v>41</v>
+      </c>
+      <c r="C606">
+        <v>-0.9463146845458188</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" t="s">
+        <v>32</v>
+      </c>
+      <c r="B607" t="s">
+        <v>39</v>
+      </c>
+      <c r="C607">
+        <v>-0.987550373345454</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" t="s">
+        <v>32</v>
+      </c>
+      <c r="B608" t="s">
+        <v>45</v>
+      </c>
+      <c r="C608">
+        <v>-0.9957460555497272</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" t="s">
+        <v>32</v>
+      </c>
+      <c r="B609" t="s">
+        <v>28</v>
+      </c>
+      <c r="C609">
+        <v>-0.9969107750343349</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" t="s">
+        <v>32</v>
+      </c>
+      <c r="B610" t="s">
+        <v>6</v>
+      </c>
+      <c r="C610">
+        <v>0.992147635908207</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" t="s">
+        <v>32</v>
+      </c>
+      <c r="B611" t="s">
+        <v>40</v>
+      </c>
+      <c r="C611">
+        <v>-0.9879609005101335</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" t="s">
+        <v>32</v>
+      </c>
+      <c r="B612" t="s">
+        <v>33</v>
+      </c>
+      <c r="C612">
+        <v>0.9997060433774219</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" t="s">
+        <v>32</v>
+      </c>
+      <c r="B613" t="s">
+        <v>10</v>
+      </c>
+      <c r="C613">
+        <v>0.9485278864456329</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" t="s">
+        <v>32</v>
+      </c>
+      <c r="B614" t="s">
+        <v>36</v>
+      </c>
+      <c r="C614">
+        <v>-0.8425262171675479</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" t="s">
+        <v>32</v>
+      </c>
+      <c r="B615" t="s">
+        <v>38</v>
+      </c>
+      <c r="C615">
+        <v>0.9489937436565988</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" t="s">
+        <v>32</v>
+      </c>
+      <c r="B616" t="s">
+        <v>15</v>
+      </c>
+      <c r="C616">
+        <v>0.9692811824991313</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" t="s">
+        <v>32</v>
+      </c>
+      <c r="B617" t="s">
+        <v>27</v>
+      </c>
+      <c r="C617">
+        <v>0.9653333691849021</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" t="s">
+        <v>32</v>
+      </c>
+      <c r="B618" t="s">
+        <v>37</v>
+      </c>
+      <c r="C618">
+        <v>0.9369864763336866</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" t="s">
+        <v>33</v>
+      </c>
+      <c r="B619" t="s">
+        <v>39</v>
+      </c>
+      <c r="C619">
+        <v>-0.9851934423731099</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" t="s">
+        <v>33</v>
+      </c>
+      <c r="B620" t="s">
+        <v>40</v>
+      </c>
+      <c r="C620">
+        <v>-0.9855890905637235</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" t="s">
+        <v>33</v>
+      </c>
+      <c r="B621" t="s">
+        <v>36</v>
+      </c>
+      <c r="C621">
+        <v>-0.8351344370150612</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" t="s">
+        <v>33</v>
+      </c>
+      <c r="B622" t="s">
+        <v>15</v>
+      </c>
+      <c r="C622">
+        <v>0.965351341375469</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" t="s">
+        <v>33</v>
+      </c>
+      <c r="B623" t="s">
+        <v>6</v>
+      </c>
+      <c r="C623">
+        <v>0.9930543853654086</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" t="s">
+        <v>33</v>
+      </c>
+      <c r="B624" t="s">
+        <v>45</v>
+      </c>
+      <c r="C624">
+        <v>-0.9944865064722606</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" t="s">
+        <v>33</v>
+      </c>
+      <c r="B625" t="s">
+        <v>27</v>
+      </c>
+      <c r="C625">
+        <v>0.9630840616159689</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" t="s">
+        <v>33</v>
+      </c>
+      <c r="B626" t="s">
+        <v>21</v>
+      </c>
+      <c r="C626">
+        <v>0.9816968795990328</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" t="s">
+        <v>33</v>
+      </c>
+      <c r="B627" t="s">
+        <v>28</v>
+      </c>
+      <c r="C627">
+        <v>-0.9957850091578713</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" t="s">
+        <v>33</v>
+      </c>
+      <c r="B628" t="s">
+        <v>42</v>
+      </c>
+      <c r="C628">
+        <v>-0.9466324950180246</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" t="s">
+        <v>33</v>
+      </c>
+      <c r="B629" t="s">
+        <v>10</v>
+      </c>
+      <c r="C629">
+        <v>0.9478593670250547</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" t="s">
+        <v>33</v>
+      </c>
+      <c r="B630" t="s">
+        <v>38</v>
+      </c>
+      <c r="C630">
+        <v>0.9446141293459266</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" t="s">
+        <v>33</v>
+      </c>
+      <c r="B631" t="s">
+        <v>41</v>
+      </c>
+      <c r="C631">
+        <v>-0.9459454723125093</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" t="s">
+        <v>33</v>
+      </c>
+      <c r="B632" t="s">
+        <v>34</v>
+      </c>
+      <c r="C632">
+        <v>0.9997403115197399</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" t="s">
+        <v>33</v>
+      </c>
+      <c r="B633" t="s">
+        <v>35</v>
+      </c>
+      <c r="C633">
+        <v>0.9997425575361774</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" t="s">
+        <v>33</v>
+      </c>
+      <c r="B634" t="s">
+        <v>37</v>
+      </c>
+      <c r="C634">
+        <v>0.9357567987505986</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" t="s">
+        <v>34</v>
+      </c>
+      <c r="B635" t="s">
+        <v>6</v>
+      </c>
+      <c r="C635">
+        <v>0.9938289656015415</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" t="s">
+        <v>34</v>
+      </c>
+      <c r="B636" t="s">
+        <v>37</v>
+      </c>
+      <c r="C636">
+        <v>0.9378478844595841</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" t="s">
+        <v>34</v>
+      </c>
+      <c r="B637" t="s">
+        <v>28</v>
+      </c>
+      <c r="C637">
+        <v>-0.9958927511318427</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" t="s">
+        <v>34</v>
+      </c>
+      <c r="B638" t="s">
+        <v>40</v>
+      </c>
+      <c r="C638">
+        <v>-0.9865417900678515</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" t="s">
+        <v>34</v>
+      </c>
+      <c r="B639" t="s">
+        <v>10</v>
+      </c>
+      <c r="C639">
+        <v>0.9445688896516887</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" t="s">
+        <v>34</v>
+      </c>
+      <c r="B640" t="s">
+        <v>45</v>
+      </c>
+      <c r="C640">
+        <v>-0.9946065641257056</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" t="s">
+        <v>34</v>
+      </c>
+      <c r="B641" t="s">
+        <v>38</v>
+      </c>
+      <c r="C641">
+        <v>0.9448940018459974</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" t="s">
+        <v>34</v>
+      </c>
+      <c r="B642" t="s">
+        <v>15</v>
+      </c>
+      <c r="C642">
+        <v>0.9660452369807145</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" t="s">
+        <v>34</v>
+      </c>
+      <c r="B643" t="s">
+        <v>36</v>
+      </c>
+      <c r="C643">
+        <v>-0.8378261339109224</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" t="s">
+        <v>34</v>
+      </c>
+      <c r="B644" t="s">
+        <v>27</v>
+      </c>
+      <c r="C644">
+        <v>0.9633610240169154</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" t="s">
+        <v>34</v>
+      </c>
+      <c r="B645" t="s">
+        <v>39</v>
+      </c>
+      <c r="C645">
+        <v>-0.9861598440642453</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" t="s">
+        <v>34</v>
+      </c>
+      <c r="B646" t="s">
+        <v>35</v>
+      </c>
+      <c r="C646">
+        <v>0.999999055941314</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" t="s">
+        <v>34</v>
+      </c>
+      <c r="B647" t="s">
+        <v>42</v>
+      </c>
+      <c r="C647">
+        <v>-0.9481077001511448</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" t="s">
+        <v>34</v>
+      </c>
+      <c r="B648" t="s">
+        <v>41</v>
+      </c>
+      <c r="C648">
+        <v>-0.9474228456219804</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" t="s">
+        <v>34</v>
+      </c>
+      <c r="B649" t="s">
+        <v>21</v>
+      </c>
+      <c r="C649">
+        <v>0.981815213167284</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" t="s">
+        <v>35</v>
+      </c>
+      <c r="B650" t="s">
+        <v>21</v>
+      </c>
+      <c r="C650">
+        <v>0.9820685440275195</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" t="s">
+        <v>35</v>
+      </c>
+      <c r="B651" t="s">
+        <v>6</v>
+      </c>
+      <c r="C651">
+        <v>0.9939365312820859</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" t="s">
+        <v>35</v>
+      </c>
+      <c r="B652" t="s">
+        <v>45</v>
+      </c>
+      <c r="C652">
+        <v>-0.9944759568403826</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" t="s">
+        <v>35</v>
+      </c>
+      <c r="B653" t="s">
+        <v>41</v>
+      </c>
+      <c r="C653">
+        <v>-0.9476693079313749</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" t="s">
+        <v>35</v>
+      </c>
+      <c r="B654" t="s">
+        <v>40</v>
+      </c>
+      <c r="C654">
+        <v>-0.986431204249001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" t="s">
+        <v>35</v>
+      </c>
+      <c r="B655" t="s">
+        <v>42</v>
+      </c>
+      <c r="C655">
+        <v>-0.9483516590757741</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" t="s">
+        <v>35</v>
+      </c>
+      <c r="B656" t="s">
+        <v>36</v>
+      </c>
+      <c r="C656">
+        <v>-0.837094975821094</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" t="s">
+        <v>35</v>
+      </c>
+      <c r="B657" t="s">
+        <v>39</v>
+      </c>
+      <c r="C657">
+        <v>-0.9860636362281656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" t="s">
+        <v>35</v>
+      </c>
+      <c r="B658" t="s">
+        <v>15</v>
+      </c>
+      <c r="C658">
+        <v>0.9658678035673119</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" t="s">
+        <v>35</v>
+      </c>
+      <c r="B659" t="s">
+        <v>27</v>
+      </c>
+      <c r="C659">
+        <v>0.96300259918737</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" t="s">
+        <v>35</v>
+      </c>
+      <c r="B660" t="s">
+        <v>28</v>
+      </c>
+      <c r="C660">
+        <v>-0.9957812396460493</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" t="s">
+        <v>35</v>
+      </c>
+      <c r="B661" t="s">
+        <v>38</v>
+      </c>
+      <c r="C661">
+        <v>0.9446118038533712</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" t="s">
+        <v>35</v>
+      </c>
+      <c r="B662" t="s">
+        <v>37</v>
+      </c>
+      <c r="C662">
+        <v>0.9380736119044474</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" t="s">
+        <v>35</v>
+      </c>
+      <c r="B663" t="s">
+        <v>10</v>
+      </c>
+      <c r="C663">
+        <v>0.9444533266425913</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" t="s">
+        <v>36</v>
+      </c>
+      <c r="B664" t="s">
+        <v>41</v>
+      </c>
+      <c r="C664">
+        <v>0.703753974909299</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" t="s">
+        <v>36</v>
+      </c>
+      <c r="B665" t="s">
+        <v>39</v>
+      </c>
+      <c r="C665">
+        <v>0.8669304201944017</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" t="s">
+        <v>36</v>
+      </c>
+      <c r="B666" t="s">
+        <v>21</v>
+      </c>
+      <c r="C666">
+        <v>-0.7218356174783196</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" t="s">
+        <v>36</v>
+      </c>
+      <c r="B667" t="s">
+        <v>37</v>
+      </c>
+      <c r="C667">
+        <v>-0.7225441095002467</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" t="s">
+        <v>36</v>
+      </c>
+      <c r="B668" t="s">
+        <v>6</v>
+      </c>
+      <c r="C668">
+        <v>-0.7852218497872454</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" t="s">
+        <v>36</v>
+      </c>
+      <c r="B669" t="s">
+        <v>38</v>
+      </c>
+      <c r="C669">
+        <v>-0.9151099491727258</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" t="s">
+        <v>36</v>
+      </c>
+      <c r="B670" t="s">
+        <v>10</v>
+      </c>
+      <c r="C670">
+        <v>-0.8477179023863806</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" t="s">
+        <v>36</v>
+      </c>
+      <c r="B671" t="s">
+        <v>45</v>
+      </c>
+      <c r="C671">
+        <v>0.8866349503831984</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" t="s">
+        <v>36</v>
+      </c>
+      <c r="B672" t="s">
+        <v>42</v>
+      </c>
+      <c r="C672">
+        <v>0.7052287600962902</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" t="s">
+        <v>36</v>
+      </c>
+      <c r="B673" t="s">
+        <v>27</v>
+      </c>
+      <c r="C673">
+        <v>-0.9465454744412118</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" t="s">
+        <v>36</v>
+      </c>
+      <c r="B674" t="s">
+        <v>40</v>
+      </c>
+      <c r="C674">
+        <v>0.8722703769106182</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" t="s">
+        <v>36</v>
+      </c>
+      <c r="B675" t="s">
+        <v>15</v>
+      </c>
+      <c r="C675">
+        <v>-0.8989721536976072</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" t="s">
+        <v>36</v>
+      </c>
+      <c r="B676" t="s">
+        <v>28</v>
+      </c>
+      <c r="C676">
+        <v>0.8802019863073929</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" t="s">
+        <v>37</v>
+      </c>
+      <c r="B677" t="s">
+        <v>40</v>
+      </c>
+      <c r="C677">
+        <v>-0.9096649324470385</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" t="s">
+        <v>37</v>
+      </c>
+      <c r="B678" t="s">
+        <v>15</v>
+      </c>
+      <c r="C678">
+        <v>0.9071758733309734</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" t="s">
+        <v>37</v>
+      </c>
+      <c r="B679" t="s">
+        <v>39</v>
+      </c>
+      <c r="C679">
+        <v>-0.9111614619067389</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" t="s">
+        <v>37</v>
+      </c>
+      <c r="B680" t="s">
+        <v>10</v>
+      </c>
+      <c r="C680">
+        <v>0.8693089504412275</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" t="s">
+        <v>37</v>
+      </c>
+      <c r="B681" t="s">
+        <v>21</v>
+      </c>
+      <c r="C681">
+        <v>0.9463682181271619</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" t="s">
+        <v>37</v>
+      </c>
+      <c r="B682" t="s">
+        <v>45</v>
+      </c>
+      <c r="C682">
+        <v>-0.920912843711864</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" t="s">
+        <v>37</v>
+      </c>
+      <c r="B683" t="s">
+        <v>27</v>
+      </c>
+      <c r="C683">
+        <v>0.8690687716444867</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" t="s">
+        <v>37</v>
+      </c>
+      <c r="B684" t="s">
+        <v>28</v>
+      </c>
+      <c r="C684">
+        <v>-0.9239517518132169</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" t="s">
+        <v>37</v>
+      </c>
+      <c r="B685" t="s">
+        <v>6</v>
+      </c>
+      <c r="C685">
+        <v>0.9390682399057841</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686" t="s">
+        <v>37</v>
+      </c>
+      <c r="B686" t="s">
+        <v>38</v>
+      </c>
+      <c r="C686">
+        <v>0.8540832000523938</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687" t="s">
+        <v>37</v>
+      </c>
+      <c r="B687" t="s">
+        <v>41</v>
+      </c>
+      <c r="C687">
+        <v>-0.9252846303902792</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688" t="s">
+        <v>37</v>
+      </c>
+      <c r="B688" t="s">
+        <v>42</v>
+      </c>
+      <c r="C688">
+        <v>-0.9255903207998263</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689" t="s">
+        <v>38</v>
+      </c>
+      <c r="B689" t="s">
+        <v>40</v>
+      </c>
+      <c r="C689">
+        <v>-0.9635803627772536</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" t="s">
+        <v>38</v>
+      </c>
+      <c r="B690" t="s">
+        <v>41</v>
+      </c>
+      <c r="C690">
+        <v>-0.846089667958134</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" t="s">
+        <v>38</v>
+      </c>
+      <c r="B691" t="s">
+        <v>45</v>
+      </c>
+      <c r="C691">
+        <v>-0.9667025609716706</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" t="s">
+        <v>38</v>
+      </c>
+      <c r="B692" t="s">
+        <v>28</v>
+      </c>
+      <c r="C692">
+        <v>-0.9647107346019009</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693" t="s">
+        <v>38</v>
+      </c>
+      <c r="B693" t="s">
+        <v>15</v>
+      </c>
+      <c r="C693">
+        <v>0.9905511244796976</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" t="s">
+        <v>38</v>
+      </c>
+      <c r="B694" t="s">
+        <v>21</v>
+      </c>
+      <c r="C694">
+        <v>0.8829644153540471</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" t="s">
+        <v>38</v>
+      </c>
+      <c r="B695" t="s">
+        <v>6</v>
+      </c>
+      <c r="C695">
+        <v>0.9100736402666671</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696" t="s">
+        <v>38</v>
+      </c>
+      <c r="B696" t="s">
+        <v>39</v>
+      </c>
+      <c r="C696">
+        <v>-0.9619650659909333</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" t="s">
+        <v>38</v>
+      </c>
+      <c r="B697" t="s">
+        <v>42</v>
+      </c>
+      <c r="C697">
+        <v>-0.8470697017263097</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" t="s">
+        <v>39</v>
+      </c>
+      <c r="B698" t="s">
+        <v>21</v>
+      </c>
+      <c r="C698">
+        <v>-0.9536638496063765</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" t="s">
+        <v>39</v>
+      </c>
+      <c r="B699" t="s">
+        <v>6</v>
+      </c>
+      <c r="C699">
+        <v>-0.9704790666549142</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" t="s">
+        <v>39</v>
+      </c>
+      <c r="B700" t="s">
+        <v>15</v>
+      </c>
+      <c r="C700">
+        <v>-0.9722395081808139</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701" t="s">
+        <v>39</v>
+      </c>
+      <c r="B701" t="s">
+        <v>45</v>
+      </c>
+      <c r="C701">
+        <v>0.989698199018507</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702" t="s">
+        <v>39</v>
+      </c>
+      <c r="B702" t="s">
+        <v>28</v>
+      </c>
+      <c r="C702">
+        <v>0.9900098112537532</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" t="s">
+        <v>39</v>
+      </c>
+      <c r="B703" t="s">
+        <v>41</v>
+      </c>
+      <c r="C703">
+        <v>0.9449435263508662</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" t="s">
+        <v>39</v>
+      </c>
+      <c r="B704" t="s">
+        <v>42</v>
+      </c>
+      <c r="C704">
+        <v>0.9456088203797628</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" t="s">
+        <v>39</v>
+      </c>
+      <c r="B705" t="s">
+        <v>40</v>
+      </c>
+      <c r="C705">
+        <v>0.9998763671419119</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706" t="s">
+        <v>39</v>
+      </c>
+      <c r="B706" t="s">
+        <v>10</v>
+      </c>
+      <c r="C706">
+        <v>-0.9470392501283944</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707" t="s">
+        <v>40</v>
+      </c>
+      <c r="B707" t="s">
+        <v>10</v>
+      </c>
+      <c r="C707">
+        <v>-0.9474459785740328</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" t="s">
+        <v>40</v>
+      </c>
+      <c r="B708" t="s">
+        <v>6</v>
+      </c>
+      <c r="C708">
+        <v>-0.9703543887498313</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" t="s">
+        <v>40</v>
+      </c>
+      <c r="B709" t="s">
+        <v>28</v>
+      </c>
+      <c r="C709">
+        <v>0.9910779315499562</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710" t="s">
+        <v>40</v>
+      </c>
+      <c r="B710" t="s">
+        <v>42</v>
+      </c>
+      <c r="C710">
+        <v>0.9421390669295083</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711" t="s">
+        <v>40</v>
+      </c>
+      <c r="B711" t="s">
+        <v>27</v>
+      </c>
+      <c r="C711">
+        <v>-0.9660579789664976</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712" t="s">
+        <v>40</v>
+      </c>
+      <c r="B712" t="s">
+        <v>41</v>
+      </c>
+      <c r="C712">
+        <v>0.9414369228864989</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713" t="s">
+        <v>40</v>
+      </c>
+      <c r="B713" t="s">
+        <v>15</v>
+      </c>
+      <c r="C713">
+        <v>-0.9729449832008648</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714" t="s">
+        <v>40</v>
+      </c>
+      <c r="B714" t="s">
+        <v>21</v>
+      </c>
+      <c r="C714">
+        <v>-0.9522015526490453</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715" t="s">
+        <v>40</v>
+      </c>
+      <c r="B715" t="s">
+        <v>45</v>
+      </c>
+      <c r="C715">
+        <v>0.9909126054424154</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716" t="s">
+        <v>41</v>
+      </c>
+      <c r="B716" t="s">
+        <v>15</v>
+      </c>
+      <c r="C716">
+        <v>-0.8885322391781476</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717" t="s">
+        <v>41</v>
+      </c>
+      <c r="B717" t="s">
+        <v>6</v>
+      </c>
+      <c r="C717">
+        <v>-0.9537190831406773</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718" t="s">
+        <v>41</v>
+      </c>
+      <c r="B718" t="s">
+        <v>10</v>
+      </c>
+      <c r="C718">
+        <v>-0.8989772047909851</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="A719" t="s">
+        <v>41</v>
+      </c>
+      <c r="B719" t="s">
+        <v>28</v>
+      </c>
+      <c r="C719">
+        <v>0.9298814947565605</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720" t="s">
+        <v>41</v>
+      </c>
+      <c r="B720" t="s">
+        <v>27</v>
+      </c>
+      <c r="C720">
+        <v>-0.8623803207176409</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721" t="s">
+        <v>41</v>
+      </c>
+      <c r="B721" t="s">
+        <v>21</v>
+      </c>
+      <c r="C721">
+        <v>-0.9644533925986599</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722" t="s">
+        <v>41</v>
+      </c>
+      <c r="B722" t="s">
+        <v>45</v>
+      </c>
+      <c r="C722">
+        <v>0.9257470351149385</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723" t="s">
+        <v>41</v>
+      </c>
+      <c r="B723" t="s">
+        <v>42</v>
+      </c>
+      <c r="C723">
+        <v>0.9999968905656036</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724" t="s">
+        <v>42</v>
+      </c>
+      <c r="B724" t="s">
+        <v>21</v>
+      </c>
+      <c r="C724">
+        <v>-0.9647941938205248</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="A725" t="s">
+        <v>42</v>
+      </c>
+      <c r="B725" t="s">
+        <v>28</v>
+      </c>
+      <c r="C725">
+        <v>0.9306958271450549</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726" t="s">
+        <v>42</v>
+      </c>
+      <c r="B726" t="s">
+        <v>15</v>
+      </c>
+      <c r="C726">
+        <v>-0.8893414289569987</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727" t="s">
+        <v>42</v>
+      </c>
+      <c r="B727" t="s">
+        <v>45</v>
+      </c>
+      <c r="C727">
+        <v>0.9265868031873488</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="A728" t="s">
+        <v>42</v>
+      </c>
+      <c r="B728" t="s">
+        <v>6</v>
+      </c>
+      <c r="C728">
+        <v>-0.9542882728888451</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729" t="s">
+        <v>42</v>
+      </c>
+      <c r="B729" t="s">
+        <v>27</v>
+      </c>
+      <c r="C729">
+        <v>-0.8635555565498408</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="A730" t="s">
+        <v>42</v>
+      </c>
+      <c r="B730" t="s">
+        <v>10</v>
+      </c>
+      <c r="C730">
+        <v>-0.8996622031845055</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="A731" t="s">
+        <v>43</v>
+      </c>
+      <c r="B731" t="s">
+        <v>44</v>
+      </c>
+      <c r="C731">
         <v>0.8943274887172598</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
+      <c r="A732" t="s">
+        <v>44</v>
+      </c>
+      <c r="B732" t="s">
+        <v>10</v>
+      </c>
+      <c r="C732">
+        <v>-0.6793497299498539</v>
       </c>
     </row>
   </sheetData>
